--- a/NformTester/NformTester/Keywordscripts/600.40.30.40_InvokedandRevokedforConfigureDataLogging.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.40_InvokedandRevokedforConfigureDataLogging.xlsx
@@ -3905,53 +3905,53 @@
     <t>SingleManual</t>
   </si>
   <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>;Go to 'Navigate', select one device and click 'Trend' tab, 'Setup' button should be present.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>;login with power user to verify that 'setup' button.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>;login with User user to verify that 'setup' button.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Go to 'Device Properties' window, verify that User should have none rights of Managed Device section in ‘Group Properties’. </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Go to 'Navigate', select one device and click 'Trend' tab, 'Setup' button should not be present.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"AllDel"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>;Go to 'Navigate', select one device and click 'Trend' tab, 'Setup' button should be present.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>;login with power user to verify that 'setup' button.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>;login with User user to verify that 'setup' button.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Go to 'Device Properties' window, verify that User should have none rights of Managed Device section in ‘Group Properties’. </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Go to 'Navigate', select one device and click 'Trend' tab, 'Setup' button should not be present.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"AllDel"</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4539,8 +4539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6075,7 +6075,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>619</v>
@@ -6087,20 +6087,20 @@
       <c r="H54" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>870</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>871</v>
       </c>
       <c r="N54" s="24"/>
       <c r="O54" s="17"/>
@@ -6188,8 +6188,8 @@
       <c r="G58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>873</v>
+      <c r="H58" s="18" t="s">
+        <v>881</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -6354,7 +6354,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="18"/>
@@ -6411,8 +6411,8 @@
       <c r="H67" s="20">
         <v>2</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>873</v>
+      <c r="I67" s="18" t="s">
+        <v>881</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -6521,7 +6521,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -6620,7 +6620,7 @@
         <v>830</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F76" s="3">
         <v>2</v>
@@ -6718,8 +6718,8 @@
       <c r="G80" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>873</v>
+      <c r="H80" s="18" t="s">
+        <v>881</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -6884,7 +6884,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="18"/>
@@ -6941,8 +6941,8 @@
       <c r="H89" s="20">
         <v>2</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>873</v>
+      <c r="I89" s="18" t="s">
+        <v>881</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -7051,7 +7051,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -7170,7 +7170,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
@@ -7261,7 +7261,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -7318,8 +7318,8 @@
       <c r="H105" s="20">
         <v>2</v>
       </c>
-      <c r="I105" s="3" t="s">
-        <v>873</v>
+      <c r="I105" s="18" t="s">
+        <v>881</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -7648,7 +7648,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>619</v>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
